--- a/xlsform/xls_download_fields_to_remove.xlsx
+++ b/xlsform/xls_download_fields_to_remove.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_OCHA_TR\03_IM_Tools\R\R_KoBo_Data\xlsform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{989EFA3B-DF20-4466-9ABD-D69F5A631B9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3244C1A7-C878-4316-81D7-4FB4109689AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{5BFEECF9-72A8-4BCE-AB1F-9B31B6C78928}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>gchoose_th</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>XLS_download_f2remove</t>
+  </si>
+  <si>
+    <t>_parent_table_name</t>
+  </si>
+  <si>
+    <t>_parent_index</t>
   </si>
 </sst>
 </file>
@@ -694,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F098A5F-A6AE-437C-8B7A-05D08FE4114B}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1216,16 @@
         <v>99</v>
       </c>
     </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
